--- a/Data_Set_1304211035.xlsx
+++ b/Data_Set_1304211035.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="21876" windowHeight="8928" activeTab="1"/>
+    <workbookView windowWidth="10380" windowHeight="3120"/>
   </bookViews>
   <sheets>
     <sheet name="Data Set" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,48 +68,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,14 +167,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,84 +189,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +221,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,56 +426,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +455,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -526,159 +513,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,8 +1029,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -1075,7 +1068,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1130,7 +1123,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1177,8 +1170,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1234,10 +1227,10 @@
         <v>36.5</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>24.16</v>
       </c>
       <c r="E3" s="2">
-        <v>28</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1245,16 +1238,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>10.6</v>
+        <v>13.5</v>
       </c>
       <c r="C4" s="2">
-        <v>32.4</v>
+        <v>34.3</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>25.5</v>
       </c>
       <c r="E4" s="2">
-        <v>28</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1262,16 +1255,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>10.6</v>
+        <v>15.86</v>
       </c>
       <c r="C5" s="2">
-        <v>32.4</v>
+        <v>34.14</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
-        <v>28</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1279,16 +1272,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>10.6</v>
+        <v>15.86</v>
       </c>
       <c r="C6" s="2">
-        <v>32.4</v>
+        <v>34.14</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
-        <v>28</v>
+        <v>8.3</v>
       </c>
     </row>
   </sheetData>
